--- a/src/assets/Testdata26.xlsx
+++ b/src/assets/Testdata26.xlsx
@@ -431,7 +431,7 @@
         <v>To check if we can create accou sutccessfully</v>
       </c>
       <c r="C2" s="1" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D2" s="1" t="str">
         <v>1</v>
@@ -448,7 +448,7 @@
         <v>To check if we can create contact</v>
       </c>
       <c r="C3" s="1" t="str">
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="D3" s="1" t="str">
         <v>1</v>

--- a/src/assets/Testdata26.xlsx
+++ b/src/assets/Testdata26.xlsx
@@ -431,7 +431,7 @@
         <v>To check if we can create accou sutccessfully</v>
       </c>
       <c r="C2" s="1" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D2" s="1" t="str">
         <v>1</v>
@@ -448,7 +448,7 @@
         <v>To check if we can create contact</v>
       </c>
       <c r="C3" s="1" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D3" s="1" t="str">
         <v>1</v>

--- a/src/assets/Testdata26.xlsx
+++ b/src/assets/Testdata26.xlsx
@@ -465,7 +465,7 @@
         <v>To check if we can create location</v>
       </c>
       <c r="C4" s="1" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D4" s="1" t="str">
         <v>1</v>
@@ -482,7 +482,7 @@
         <v>To check if we can create policy</v>
       </c>
       <c r="C5" s="1" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D5" s="1" t="str">
         <v>1</v>
@@ -499,7 +499,7 @@
         <v>To Check invalid driver details</v>
       </c>
       <c r="C6" s="1" t="str">
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="D6" s="1" t="str">
         <v>1</v>
